--- a/hamData.xlsx
+++ b/hamData.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,6 +606,3240 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BHhl75a5bks</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-01-29T14:34:46Z</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ugy41He-E7NJsT2dfDl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>මෙන්ඩා මේ කාලේ දක්ශතා අතර නැති උනාට පොර form 1 ඉන්න කොට score board presure 1 අඩු වෙන්නෙ පට පට ගාලා..... ඒ හින්දා මෙන්ඩා ආයේ track 1ට දාගන්න ඕන......
+එතකං teem 1න් කපලා වෙන කෙනෙක්ට chance 1 දීලා, මෙන්ඩව වෙනම අරගෙන out වෙන්න හේතුව හොයලා, ඒක හදලා ආයේ chance 1 ක් දීලා බලන්න ඕන......
+මෙන්ඩා අපේ මයියා ගානට ගේන්න පුලුවං චරිතයක්........
+ඇයි මේක පාලකයොන්ට, Couch ට එහෙම තේරෙන්නැත්තේ??????</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:23:43Z</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:25:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BHhl75a5bks</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-01-29T14:34:46Z</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UgzqOzLn0X3M6LT2tkx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>මේමයි..... වැඩ්ඩෙක් නං chance අනිවා දෙන්න ඕන.... දක්ශතා අතර ඉන්න වෙලාවේ chance නොදී නං වැඩක් නෑ.......</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:20:10Z</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:20:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BHhl75a5bks</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-01-29T14:34:46Z</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ugx5fu2yEbF7Uth9Hsl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ක්‍රිකට් ක්‍රීඩාව ආරක්ෂා කරන්න හරි ක්‍රීඩකයන්ව තරග සඳහා සහභාගී කරවීමේ අරමුණින් තමයි මොවුන්ව මේ ආකාරයෙන් නොසලකා හරින්නේ.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>UCx3W86QCpSsPtwVAcI0vGcA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:03:03Z</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:03:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BHhl75a5bks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-01-29T14:34:46Z</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ugy41He-E7NJsT2dfDl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>මෙන්ඩා මේ කාලේ දක්ශතා අතර නැති උනාට පොර form 1 ඉන්න කොට score board presure 1 අඩු වෙන්නෙ පට පට ගාලා..... ඒ හින්දා මෙන්ඩා ආයේ track 1ට දාගන්න ඕන......
+එතකං teem 1න් කපලා වෙන කෙනෙක්ට chance 1 දීලා, මෙන්ඩව වෙනම අරගෙන out වෙන්න හේතුව හොයලා, ඒක හදලා ආයේ chance 1 ක් දීලා බලන්න ඕන......
+මෙන්ඩා අපේ මයියා ගානට ගේන්න පුලුවං චරිතයක්........
+ඇයි මේක පාලකයොන්ට, Couch ට එහෙම තේරෙන්නැත්තේ??????</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:23:43Z</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:25:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BHhl75a5bks</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-01-29T14:34:46Z</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UgzqOzLn0X3M6LT2tkx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>මේමයි..... වැඩ්ඩෙක් නං chance අනිවා දෙන්න ඕන.... දක්ශතා අතර ඉන්න වෙලාවේ chance නොදී නං වැඩක් නෑ.......</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:20:10Z</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:20:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BHhl75a5bks</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-01-29T14:34:46Z</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ugx5fu2yEbF7Uth9Hsl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ක්‍රිකට් ක්‍රීඩාව ආරක්ෂා කරන්න හරි ක්‍රීඩකයන්ව තරග සඳහා සහභාගී කරවීමේ අරමුණින් තමයි මොවුන්ව මේ ආකාරයෙන් නොසලකා හරින්නේ.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>UCx3W86QCpSsPtwVAcI0vGcA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:03:03Z</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2021-01-29T15:03:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UgxOTQ9aRrsWhsqSGAl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>මම ඔයාගෙ ෆැන් කෙනෙක්.මම (Dharma ධර්ම ) Youtube Channel එක කරනවා.මට මුදල් හදිස්සියකට මගෙ දුරකථන විකුණනවා.මගෙ Channel එක ඔයගෙ channel එක තරම් ලොකු එකක් නෙවෙයි.බොහොම පොඩි එකක්.මම Channel එක කරන්නෙ දුරකථනයෙන්.එක විකුනුවට පසු මට විඩියො කරන්න විදියක් නැහැ.පුලුවන් නම් උදව්වක් කරන්න.මේක ඉල්ලීමක් විතරයි.මම කරන්නේ ධර්ම දානමය පිනක්.දුරකථනයක් ලබාගැනීමට සහය වන්න.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UCsxeWNZ5K3Ygbz5fYL2Wj5w</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:19:42Z</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2021-01-19T18:19:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UgyGzsVPTJwSAPeOQGl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Genxt, distribute කරන Phone Country of origin or Version එක මොකක්ද? Abans site එකේ නම් තියෙන්නෙ Singapore version එක - MGJ53ZP/A
+USA version එක ලංකාවේ Approvedද? විස්තරයක් ඕන</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>UC299hQiTJOFR2Ati0n83EJA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2020-12-04T16:18:13Z</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2020-12-04T16:18:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UgyJBWaojLs6OC1Jjix4AaABAg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M2pHT1fVhM0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UClmjSrj7zhqKB_Ys3O1zP0A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2020-12-01T17:53:29Z</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2020-12-01T17:53:29Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ugz0Ttg2dv_54NfIDLF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>iphone 12mini,12,12 pro,12 pro maxල්ල😂😂😂😂😂</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UCQhIZCQRAr3L1D8khdmDYQQ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2020-12-01T11:37:01Z</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2020-12-01T11:37:01Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ugx6sE5x0Uit8ivzNEh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>හිඟන කාලයක්....12එකක් ගත්තා....ලන්කාවෙන්නම් නෙමෙයි...ලංකාවේ ගත්තොත් පාරේ තමයි...30000ක් අමතරව ගෙවන්න ඔනේ....ලංකාවේ...</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UC2O-goBeXAr7XshQLeDslMA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2020-11-30T17:50:52Z</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2020-11-30T17:50:52Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UgwC7qH3phv0Q2VRVj14AaABAg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>අනෙ chanux  අයියෙ මටත් i pone මොකක් හරි අරන් දෙන්නකො හලො ඔයා ලග ගොඩක් පොන් තියනවනෙ එකක් දෙන්නකො</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>UCOY1PbQ5dLQFR_zIr4VTihg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2020-11-30T08:12:44Z</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2020-11-30T08:12:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ugy2isuxYZflvHIohVp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>පුලුවන්නම් මට subscribe 10යක් ගන්න උදවු කරන්න..ලොකු උදවුවක්..පුලුවන්නම් විතරක් මාව subscribe කරන්න..</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UCFGuM1nuW_EcoXVbG3ffieA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-11-30T05:48:19Z</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2020-11-30T05:48:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>UgzsRsS64a0mNCPVxYR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>අයියෙ paypal account එකක් හදාගන්න විදිහ වීඩියෝ එකක් දාන්නකො..
+මෙහෙම වීඩියෝ එකක් ඕනෙ කියන අය ලයික් දාන්න..</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>UCRMGSdlqUR1pLVvj58izEMQ</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2020-11-29T18:58:25Z</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2020-11-30T12:00:18Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ugw5k9IzVkmrTMA0AMF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4 tama ❤</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>UCVRa71JOW9B3uNy3MSJOAfA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2020-11-29T14:10:15Z</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2020-11-29T14:10:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>UgzZBSiKha_GTnFOzwx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>මේක බලන්න https://youtu.be/3oVM32Vy5-g</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UCWOIHmXNGS4xyvPJaY4uVbw</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-11-29T08:21:04Z</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2020-11-29T08:21:04Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>UgwQfySwSoNvKJdWmBl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>සබ්ස්ක්‍රයිබ්,ව්වුසස්,ලයික් මදිද?/ ඔයාගේ චැනල් ඒකට සාර්ථකව සබ්,ව්වුස්,වොච්ටයම් සතියෙන් ගන්න මේ ව්ඩියෝ ඒක බලන්න , සුපිරි ඇප් ඒකක්
+https://youtu.be/Di-V3h_kS30
+මේව්ඩියෝ ඒකට ව්වුස් ගන්න නෙවෙයි කියන්නේ . ඒ චැනල් ඒක මගේ නෙවෙයි ඔයාලාගැන හිතලා මම කියන්නේ🤑</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UCEqew0TX5wm2E44ZVd2UcKw</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2020-11-29T07:06:09Z</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2020-11-29T07:06:09Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>UgyC9COmIcHvsoyb2Vd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>iPhone 12 pro🔥🔥</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>UC7lm9bTMyua26UZFdg7lH5A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2020-11-29T01:53:47Z</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2020-11-29T01:53:47Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>UgyX-REPkIsAf6EdPCt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tech වලට කැමති යාලුවො මේ පැත්තට එන්න 
+https://www.youtube.com/channel/UCYkLG_2vN4mZ1kuGiSClMfw</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UCYkLG_2vN4mZ1kuGiSClMfw</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2020-11-29T01:00:29Z</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2020-11-29T01:00:29Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ugy1AISC089sx09G-gh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>මම ඇමරිකාවෙ ගත්ත එකට ටැක්ස් එක 87 ක් වැදුණා. ඒත් ලංකාවෙ ටැක්ස් එක එකතු කරලා වෙන්නැති මේ ගණන් කියන්නෙ. මං ගත්තු iPhone Pro Max 512 එකට 1399 + 87 tax USD ගෙව්වෙ. MagSafe charger 39$, headphones 29$. AirPods free ලැබුණෙ නැහැ. 
+ලංකාවට යැව්වා FedEx හරහා එකක්. යවන්න 80$ ගියේ. නමුත් කස්ටම් එකෙන් ගත්තා 53දාහක් ලයිසන් එකකටයි ෆෝන් එක රිලීස් කරන්නයි. ඒ මෝඩකම කරන්න එපා වෙන කවුරුවත්. මිනිස්සුන්ට කන්න නැතුව ඉන්න කාලෙ එච්ච⁣ර ටැක්ස් ගහන එක හරිද කියලා ඔයාලම තේරුම් ගන්න. හොඳම දේ ඇමරිකාවෙ හෝ පිටරටක ඉන්න කෙනෙක් හරහා එයා එනදවසක ගෙන්නගන්න එක. ෆෝන් එක ඔරිජිනල්ද කියලා බයකුත් නෑනෙ. iPhone 12 Pro Max unavailable කියපා වැටුණා genxtstore එකේ. ගාණ 374,990 LKR. ඇමරිකාවට වඩා ලක්ෂයක් වැඩියි. ටැක්ස් අතෑරියම bulk order එක්ක මේ විකුණන අයට යම් සුළු ලාභයක් ඇති.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>UCRNyIDUZT2zoPqzkYB8GZgQ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:55:53Z</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:55:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>UgwzTnNNWrrEPZY7JIB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>මෙතන අඩුවෙන් දෙනවා කියන එක මුසාවක්. ඒ ඇඩ්වල හැටි</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UCRNyIDUZT2zoPqzkYB8GZgQ</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:40:17Z</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:40:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ugx32LHbeLP8QrGGLxd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ගන්න සල්ලි නැති උනත් ආසාවෙන් බැලුවා 😍</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>UCYmd52Jxh6H6_O_UzHp7-0g</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:22:41Z</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:22:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>UgyBsffaLFNovxXdvGp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>මෙ විඩියෝ එකෙන් 1 million ගන්නවාමයි chanuxbro 🇱🇰</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UCYmd52Jxh6H6_O_UzHp7-0g</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:21:55Z</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:21:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UgzZP_qod7v-lVTB4ut4AaABAg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>මම න්ම  කැමති iphone 12 pro max එකට</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>UCrqr_a5PCjhCbrbt2m_Dpmg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-11-28T13:19:35Z</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2020-11-28T13:19:35Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>UgyIp7KMLa0O1ymbO1l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Iphone 12 එකේ touch වෙන්නෙ නැති issue එකක් තියනවා කියන්නෙ ඇත්තද?</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UCS3EVLVVl_3sOuycT7GVSGg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-11-28T12:43:13Z</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2020-11-28T12:43:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>UgyAwn2C2faTFTHQ9U14AaABAg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>උබ නම්කිසි හිතක් පපුවක් නැතිමනුස්සයෙක්.මෙ ලන්කාවේ මෙ තියන කොරොනා සිටුවේශන් එක නිසා මිනිස්සු කී දෙනෙක් කන්න බොන්න නැතුව ඉන්නවාද ?උබඑහෙම ත්ත්වයක් තියෙද්දිත් උබට apple phone පිස්සුව? යකො ! Pre-order කර කර කර ඉන්නෙ නතුව දුප්පත් මනුස්සයෙක්ට  udw krapan!</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>UC4yt3gK3no5R_48IGiaJnwA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-11-28T11:16:43Z</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2020-11-28T11:16:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ugy4pd40BscKInWWihN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>මොනවා හම්බුනත් phone එකත් එක්ක charger එක හම්බු වෙනවනම් තමයි හොද......😁😁😁😁</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>UCnUu9bz9-QUuGS1VALr9rfA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:51:40Z</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:51:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>UgxJYDI6wtGwYsgaCtR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>හොඳ වෙලාවට මේ Video eka damme. දැන් ඕක ගන්නත් epi මං 😄😂😭</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>UCCTh1YfOSgmAw3x2l5tR1FA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:39Z</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UgyPpEXVOfOizhq8BSR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>හොඳ වෙලාවට මේ Video eka damme. දැන් ඕක ගන්නත් epi මං 😄😂😭</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>UCCTh1YfOSgmAw3x2l5tR1FA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:33Z</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UgwsbbIDro1_L8xJRpV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Bro is iphone 12 trcsl approved????????????</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>UCXYvgqz3cEcgZ2RCZBAzNjw</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:44:16Z</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:44:16Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ugw4ULH9rfjGJ5i3Reh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>චනුක්ස් අයියාගේ විඩියෝ බලන කට්ටිය මාවත් subscribe කරලා සප් එකක් දෙන්න</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UCiaAvLZOzPxabK-b3giI75w</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:48:20Z</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:48:20Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UgxViabMYuZyg3eXkut4AaABAg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12 Pro Max එක ගන්නවට වඩා හොදයි gaming pc එකක් හදාගන්න එක</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UCifagwykI_yzX0MAXw-tERA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:41:42Z</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:41:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>UgxOSMj_LtabQ4K6Y0Z4AaABAg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>bro ඔය නම්බරවලට කෝල් ගත්තට වැඩ කරන්නෑනෙ swich off කියල busy කියල වැටෙනව pre order
+කරන්නත් බයයි</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UCH64LaPO6beaKeDVtIwly1A</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:11:54Z</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:11:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ugw_eKTiL62EC728zwB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>යකෝ උඹට ඕව 6,5 ගන්න සල්ල තිබ්බට පිටිට A 31 එකක් ගන්නවත් සල්ල නෑ. තිබ්බත් ඔය වගේ තේරුමක් නැති ඒවට වියදම් කරන්නේ නෑ</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>UC9ypybj525qXgKThgl5mPTg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:35:59Z</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:35:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ugy7x8SXyIJ3AN_KFrl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12 mini blue ...🥰🥰🥰🥰</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>UCdMBQ-wpdG6qsdABXQy9I7Q</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:26:39Z</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:26:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>UgyWoPD2mrdF_10I36R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>I phone 12 mini..!!</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>UCnAAh7eQjxoL7WsJ9ZtVHvg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:57:46Z</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:57:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>UgyN3sPoEHnPxulZztJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Ftt අයියෙ iphone 12 pro max එක තමා කැමතිම එක</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UCWzE3aCo9iE-LVfk4xSOONw</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:34:02Z</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:34:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ugw_A_AHT8fqWyXHEAt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12 pro 🔥🔥🔥🔥🔥</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UCYMFjscc5homxrh42TgNm7Q</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:04:22Z</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:04:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ugy3mkcth4AMv5Qa-zV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ආස නම් pro max. Phone එකක් ගන්න 35,000ක් හොයාගන්න ඕනා මුලින්ම 😆😂😉
+ 22K more 😍❤</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>UCmlvqMD6B_pLTPY--qCxpGA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:55:31Z</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:55:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UgxHc-KfbduZ0aydPTx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>45 චනුක්ස්ගෙන් හාටි හිගන්නන් 
+40 සබි හිගාන්නන් 
+14 ලයික් හිගන්නන් 
+1 වීඩියෝ එක ගැන 😎</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UCb1MTP9eF9Fzt83UtW9BY8A</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:10:13Z</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:11:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>UgwOQ7PkhfqJ7tkQDI14AaABAg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>බලා සැනසේමි නෙලාගනු බැරි apple 12 pro සිහිනේ😑😑අයියේ</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>UC0v0P_OqpqGKnR6wfQ0AG6g</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:53:05Z</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:53:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UgwZ08JKHcKrg9urDL14AaABAg</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>උබට 1milon ගහන්න ආසාවක් තියෙනවනම් ඔය ගත්තු phone 4න් 3ක් වත් දෙන්න ඕනේ</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>UClz5mIijftaecQoQb909RHw</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:57:23Z</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:57:23Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>UgxGUuY-JSqZZAhOKjd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>අයියේ  මම youtube  update කරා කිසිම දෙයක් තේරෙන්නෙ නෑ අනේ අලුත් youtube update  එක ගැන වීඩියෝ එකක් කරන්නකෝ..........👍👍👍❤️❤️❤️</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UCuYRIXV81nzBGgEMO47_iFg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:33:15Z</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:33:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ugzirtj5pgxbZ9uHjdR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>අයියට බැරිද ගේම් එකක් වගෙ තියලා පෝන් එකක් දෙන්න 😉</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>UCZExOEoGrfA2jh44uJ9P00Q</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:32:55Z</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:32:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UgzdKOrDWWnsW2ugEgJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>I phone 12 හීනයක් 🙃😁😁</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>UC6M463JpPS4d9ahz7fqX-zQ</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:06:38Z</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:06:38Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>UgxDf436eUH6A2KcjtZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Programming කරන්ට කැමති අය කවුද මෙතන ඉන්නෙ.
+Programming කරන්න,ඉගෙනගන්න ගොඩක්  කැමතියි මම. Programming  අලුත් දෙයක් ඉගෙන ගත්තම ඒකෙන් කරන්න ගොඩක් දේවල් ඔලුවට එනව. Programming දිගට කර කර ඉන්න කොට එපාත් වෙනව. ඒත් ආපහු programming කරන්න හිතෙනව.
+Programming video එකක් ගේන්ටකො.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>UCJ2xbrrKiMomv3UUrTYWBGQ</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:02:54Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:02:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>UgwfTouSDYezMrfvxzB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Data card දාන්න සල්ලි නැද්ද? 
+Sim එක Hutch/Etisalat ද?
+ එහෙම නම් ඔයාටත් unlimited free data ගන්න පුලුවන්. 
+🧡මලින්ම ඔයාගෙ  smart phone ඒකට
+ Cliq  app එක install කර ගන්න. 
+🧡ඊලගට ඔයා ඒකෙ Register wenna.
+🧡ඊලගට වම්පැත්තෙ උඩම ඉරි තුනක් අැති ඒක ටච් කරන්න.
+🧡ඊලගට ඒතන උඩම invite friends කියල ඒකක් අැති ඒක ටච් කරන්න.
+🧡ඊලගට ඒතන පහලම තියනව Redeem invitation කියල ඒක ටච් කරන්න.
+🧡ඊලගට ඒතන මෙන්න මේ Code එක ගහන්න.(මතක අැතුව Capital,Simple හොදට බලලා හරියටම ගහන්න.)👇👇👇
+Code : 45zbbt
+🧡ඊලගට ඊතලය ටච් කරන්න.ඊට පස්සෙ free time plane කියන ඒකට යටින් 6 Hours unlimited කියල වැටෙයි.ඊට පස්සෙ ඔයාට ඒක active කරගන්න පුලුවන්.
+එතකොට ඔයාට ඒ වෙලාවේ ඉඳන් පැය 6ක්  unlimited free data ගන්න පුළුවn</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UCp9ScklBnxBFZM9UUiEWYmg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:54:32Z</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:54:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ugy-wj-b9GqzMM_v8H14AaABAg</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>i phone  12 mini වලට තමා කැමති.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>UC5qxLxnOJYtkz6v0htzfOPA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:48:46Z</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:48:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ugy3zQdd3amJGtvH0HZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>අයියෙ මටත් එකක් දෙන්නකො.😂😂😂</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>UC5qxLxnOJYtkz6v0htzfOPA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:53Z</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>UgxytOqIm6BjqbRqFcJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>අයියේ i phone 12 pro max 512Gb rom එක තියෙන එකත් ඔය ගානමද</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>UCPqm53nCvzHYIbPqTBRpapA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:25Z</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ugyf3NUzB3REoolPmyF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Man 12 mini එක 128 gb ගත්තෙ ලංකාවෙ සල්ලි වලින් 156700 යි .ලංකාවෙ 64 gb eka 189 k වෙනවලු ඉතින් හිතා ගනිල්ලකො ඇයි ලංකාවට එහෙම උනේ කියලා</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UCfIs3R8bG5zRK7CaAYlTI9Q</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:05Z</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>UgxGvMFY_7U3FW2yukF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>අනේ මන්දා.මේවා ගන්න සල්ලිත් නෑ.ඩේට කපාගෙන ඔක්කොම වීඩියෝ එක බලපු අය.
+👇</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>UCfvdG2-wrvTxbYV08hMEdvA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:30:53Z</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:30:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>UgwT9DJ6XjTHkAFnwYR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ඔයලත් මව sb කරන්න .මමත්  sb කරනවා . ❤❤</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UCZCPoJyyNzc79C20UfJswHQ</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:51Z</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>UgxppDc1D9FHhOqGwP94AaABAg</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ඔයලත් මව sb කරන්න .මමත්  sb කරනවා . ❤❤</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>UCZCPoJyyNzc79C20UfJswHQ</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:43Z</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ugyz1lH-63bCHpFZmmB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pr5ZzaPCs5E .</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>UC-0Hy312363DovysCoR_-rw</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:11:18Z</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:11:18Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>UgwjmmRxfG8tJKP5uMl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>අපිට කන්න වක්කත් සල්ලි නැ ඉතින් ෆොන් ගහන්නෙ කෙහොමද</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UCTvZUeyg3SGEjBBsw8tWBOA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:08:42Z</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:08:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>UgwWNAegy2umVnJXYeZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>මම English songs වලට animation videos හදලා දානවා කැමති අය ඉන්නවා නම් මගේ චැනල් එක පැත්තෙ එන්න හොඳයි කියලා හිතෙනවා නම්
+Subscribe  කරන්න.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UC9VC94ha3uTguEQWASbmwXg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:31Z</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>UgxUcy_DfE4cIfRbOhl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>I phone ගන්න සල්ලි නැතත් ඒවට කැමති එවුන් කෝ .</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>UC4V4Onyy42U9XLWbT3sCP0Q</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:24Z</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ugy-hLAy4aNd-8NAZGZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>i phone එකක් ගන්න බැරුව දුක් විදින අය කෝ........................😟</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>UCWq_NpTnR-4IR7xqNFSwGUw</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:00:28Z</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:00:28Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>UgzLOhNDrgeQoEp-ZyR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>අයියේ ඔයා පාවිච්චී කරන පෝන් එක මොකක්ද කිය්න්නකෝ pls</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UCPqm53nCvzHYIbPqTBRpapA</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:59:54Z</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:59:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>UgymU90p3vSTbWEB4J94AaABAg</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>i phone 12 mini 😍
+2013 සැප්තැම්බර්  දාපු 5s එක ගත්තේ 2019 ඔක්තෝබර්. 12 mini එකත් 2025 හරි ගන්නවා 🤗</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UCMzf3bz-Ok--OxDUn2979wA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:56:45Z</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:09:28Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ugy37maDCjfNKxMySXR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Iphone 12pro max එකට කැමතියි.👍👍
+සල්ලි තමයි නැත්තෙ. 😁</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UCJ2xbrrKiMomv3UUrTYWBGQ</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:51:22Z</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:51:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>UgwDW2A58itiEhOPGMJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Chanux bro මේ පාර රත්තරන් බොත්ත්ම    ගහනවා කියන උන් මේ කොනට</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UCtsTFnMTFCsKhyYybLjLw3Q</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>26</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:48:42Z</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:48:58Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ugw3qIz8-5iC_7XzPnJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://locate.apple.com/lk/en/sales/?pt=3&amp;lat=6.9151861&amp;lon=79.8632569&amp;address=Colombo 
+me list eke na ne genxt eka</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UCBIzHORYs1TMXPB2L2UcYuw</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:41:02Z</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:41:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>UgxRBEGC-mNNrqTHX-V4AaABAg</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ඔයා සබ් මිලියනයක් ගත්තොත් යූ ටියුබ් එකෙන් මොනවද හම්බවෙන්නේ 😀😀😀</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UCRZxhGwizLWJtGAVY1S0W1A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:38:44Z</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:38:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>UgwHQwSW4yUS0I-muXB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>අයියේ iphone 12 mini එක ගැන rivew එකක් ගේන්න</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UCVFnU9vVgjYNbq25thGwrWA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:36:41Z</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:36:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>UgzQpTKJI4d2O9l0VGV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Chunx 1m ගන්න sup එක දේන උන් මේ කොනට💙💙✌✌</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UCoFjwGGDfu5A5jDdtfW_irQ</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>9</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:53Z</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>UgwOxqezIuuu-FREo7x4AaABAg</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Notification ආපු ගමන් ආව අය කෝ😜</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>UCMpqSU0YZz3dux3dpSkv7cg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>111</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:31Z</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>UgyEoKhSIsVoSp0bqRR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>𝐁𝐚𝐥𝐚𝐧𝐧𝐚 𝐤𝐚𝐥𝐢𝐧 𝐜𝐨𝐦𝐞𝐧𝐭 𝐤𝐫𝐚𝐩𝐮 𝐚𝐲𝐚🤚</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UCAAwYojuu1hJ_iYfjY6LZKw</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:28Z</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:28Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>UgzhKR3Hnfy1iYdviSl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/c/GamingwithUdayanga සබ් එකක් දෙන්න යහලුවෙ</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UC2y8gBsbFUjDFmep60cAsuw</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:57Z</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UgzfJd43xx7ZmYs4Gp54AaABAg</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>╔╗╔╦╗
+║║╠╣╠╦═╗
+║╚╣║═╣╩╣
+╚═╩╩╩╩═╝</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UCVl63cO9GINFuxJifpabROw</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:55Z</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:55Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
